--- a/uploads/import_chat_ids (1).xlsx
+++ b/uploads/import_chat_ids (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,19 +368,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5141281331</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>5141281332</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5141281333</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -460,6 +454,56 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5141281349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>5141281350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5141281351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5141281352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5141281353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5141281354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>5141281355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>5141281356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>5141281357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5141281358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5141281359</v>
       </c>
     </row>
   </sheetData>
